--- a/CashFlow/GRMN_cashflow.xlsx
+++ b/CashFlow/GRMN_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3234000000.0</v>
+        <v>-11406000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3186000000.0</v>
+        <v>28726000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2431952000.0</v>
+        <v>-48111000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1501048000.0</v>
+        <v>-159078000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>658898000.0</v>
+        <v>-178420000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-170169000.0</v>
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>37828000.0</v>
+        <v>938000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1447000.0</v>
+        <v>887000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>229061000.0</v>
+        <v>869000000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
